--- a/oil share/required primary energy Exajoules.xlsx
+++ b/oil share/required primary energy Exajoules.xlsx
@@ -437,911 +437,1571 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2002</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2003</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2004</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2005</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2006</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2007</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2008</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2009</v>
+      </c>
+      <c r="L1" s="1">
         <v>2010</v>
       </c>
-      <c r="C1" s="1">
+      <c r="M1" s="1">
         <v>2011</v>
       </c>
-      <c r="D1" s="1">
+      <c r="N1" s="1">
         <v>2012</v>
       </c>
-      <c r="E1" s="1">
+      <c r="O1" s="1">
         <v>2013</v>
       </c>
-      <c r="F1" s="1">
+      <c r="P1" s="1">
         <v>2014</v>
       </c>
-      <c r="G1" s="1">
+      <c r="Q1" s="1">
         <v>2015</v>
       </c>
-      <c r="H1" s="1">
+      <c r="R1" s="1">
         <v>2016</v>
       </c>
-      <c r="I1" s="1">
+      <c r="S1" s="1">
         <v>2017</v>
       </c>
-      <c r="J1" s="1">
+      <c r="T1" s="1">
         <v>2018</v>
       </c>
-      <c r="K1" s="1">
+      <c r="U1" s="1">
         <v>2019</v>
       </c>
-      <c r="L1" s="1">
+      <c r="V1" s="1">
         <v>2020</v>
       </c>
-      <c r="M1" s="1">
+      <c r="W1" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>13.13096235088278</v>
+      </c>
+      <c r="C2">
+        <v>12.85955247691888</v>
+      </c>
+      <c r="D2">
+        <v>13.29621427324389</v>
+      </c>
+      <c r="E2">
+        <v>13.35967618746709</v>
+      </c>
+      <c r="F2">
+        <v>13.56504324204345</v>
+      </c>
+      <c r="G2">
+        <v>13.65572098336284</v>
+      </c>
+      <c r="H2">
+        <v>13.57985847379989</v>
+      </c>
+      <c r="I2">
+        <v>14.09746534406784</v>
+      </c>
+      <c r="J2">
+        <v>13.9298531296535</v>
+      </c>
+      <c r="K2">
+        <v>13.38429806012983</v>
+      </c>
+      <c r="L2">
         <v>13.51797120952556</v>
       </c>
-      <c r="C2">
+      <c r="M2">
         <v>14.02915652657829</v>
       </c>
-      <c r="D2">
+      <c r="N2">
         <v>14.07408862611662</v>
       </c>
-      <c r="E2">
+      <c r="O2">
         <v>14.41588719690964</v>
       </c>
-      <c r="F2">
+      <c r="P2">
         <v>14.45389171403354</v>
       </c>
-      <c r="G2">
+      <c r="Q2">
         <v>14.54733333065971</v>
       </c>
-      <c r="H2">
+      <c r="R2">
         <v>14.34703635481056</v>
       </c>
-      <c r="I2">
+      <c r="S2">
         <v>14.57999189517682</v>
       </c>
-      <c r="J2">
+      <c r="T2">
         <v>14.70247221792478</v>
       </c>
-      <c r="K2">
+      <c r="U2">
         <v>14.63040358457585</v>
       </c>
-      <c r="L2">
+      <c r="V2">
         <v>13.82244279828605</v>
       </c>
-      <c r="M2">
+      <c r="W2">
         <v>13.93616123655018</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>5.889787045247094</v>
+      </c>
+      <c r="C3">
+        <v>5.815412671316943</v>
+      </c>
+      <c r="D3">
+        <v>5.997982749429987</v>
+      </c>
+      <c r="E3">
+        <v>6.044984833714598</v>
+      </c>
+      <c r="F3">
+        <v>6.372828091384555</v>
+      </c>
+      <c r="G3">
+        <v>6.782949181946169</v>
+      </c>
+      <c r="H3">
+        <v>6.998350441895687</v>
+      </c>
+      <c r="I3">
+        <v>7.032896486188441</v>
+      </c>
+      <c r="J3">
+        <v>7.187125474885182</v>
+      </c>
+      <c r="K3">
+        <v>7.122738964299186</v>
+      </c>
+      <c r="L3">
         <v>7.336261125925864</v>
       </c>
-      <c r="C3">
+      <c r="M3">
         <v>7.687863079423568</v>
       </c>
-      <c r="D3">
+      <c r="N3">
         <v>7.731667638145691</v>
       </c>
-      <c r="E3">
+      <c r="O3">
         <v>7.763674973615933</v>
       </c>
-      <c r="F3">
+      <c r="P3">
         <v>7.729461955838955</v>
       </c>
-      <c r="G3">
+      <c r="Q3">
         <v>7.719363281798594</v>
       </c>
-      <c r="H3">
+      <c r="R3">
         <v>7.81850486716358</v>
       </c>
-      <c r="I3">
+      <c r="S3">
         <v>7.932166339217925</v>
       </c>
-      <c r="J3">
+      <c r="T3">
         <v>7.897639554917999</v>
       </c>
-      <c r="K3">
+      <c r="U3">
         <v>7.581279295492327</v>
       </c>
-      <c r="L3">
+      <c r="V3">
         <v>6.43021239392945</v>
       </c>
-      <c r="M3">
+      <c r="W3">
         <v>6.788998976374384</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>95.5635354058966</v>
+      </c>
+      <c r="C4">
+        <v>93.28600901662436</v>
+      </c>
+      <c r="D4">
+        <v>94.67225364149637</v>
+      </c>
+      <c r="E4">
+        <v>94.96840400765376</v>
+      </c>
+      <c r="F4">
+        <v>96.83117680506203</v>
+      </c>
+      <c r="G4">
+        <v>96.87648133233192</v>
+      </c>
+      <c r="H4">
+        <v>96.11322654564597</v>
+      </c>
+      <c r="I4">
+        <v>97.42963246261992</v>
+      </c>
+      <c r="J4">
+        <v>95.05985423623358</v>
+      </c>
+      <c r="K4">
+        <v>90.37990956591482</v>
+      </c>
+      <c r="L4">
         <v>93.4267147607998</v>
       </c>
-      <c r="C4">
+      <c r="M4">
         <v>92.6138349893952</v>
       </c>
-      <c r="D4">
+      <c r="N4">
         <v>90.17231173957984</v>
       </c>
-      <c r="E4">
+      <c r="O4">
         <v>92.61989975035982</v>
       </c>
-      <c r="F4">
+      <c r="P4">
         <v>93.58638497545198</v>
       </c>
-      <c r="G4">
+      <c r="Q4">
         <v>92.6893223786043</v>
       </c>
-      <c r="H4">
+      <c r="R4">
         <v>92.60334522186746</v>
       </c>
-      <c r="I4">
+      <c r="S4">
         <v>92.94851051850907</v>
       </c>
-      <c r="J4">
+      <c r="T4">
         <v>96.34490275088989</v>
       </c>
-      <c r="K4">
+      <c r="U4">
         <v>95.65797965827954</v>
       </c>
-      <c r="L4">
+      <c r="V4">
         <v>88.53560487119755</v>
       </c>
-      <c r="M4">
+      <c r="W4">
         <v>92.9716585822148</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>20.70800750728938</v>
+      </c>
+      <c r="C5">
+        <v>20.58326165914573</v>
+      </c>
+      <c r="D5">
+        <v>20.88589267509973</v>
+      </c>
+      <c r="E5">
+        <v>21.19753966364155</v>
+      </c>
+      <c r="F5">
+        <v>22.22190845019347</v>
+      </c>
+      <c r="G5">
+        <v>22.89925739218102</v>
+      </c>
+      <c r="H5">
+        <v>23.90597063851436</v>
+      </c>
+      <c r="I5">
+        <v>25.00629944886469</v>
+      </c>
+      <c r="J5">
+        <v>25.55257923192828</v>
+      </c>
+      <c r="K5">
+        <v>25.25590421223635</v>
+      </c>
+      <c r="L5">
         <v>26.63789525051764</v>
       </c>
-      <c r="C5">
+      <c r="M5">
         <v>27.71779915032916</v>
       </c>
-      <c r="D5">
+      <c r="N5">
         <v>28.46038165423432</v>
       </c>
-      <c r="E5">
+      <c r="O5">
         <v>29.14411840006552</v>
       </c>
-      <c r="F5">
+      <c r="P5">
         <v>29.37127796326441</v>
       </c>
-      <c r="G5">
+      <c r="Q5">
         <v>29.28846952485437</v>
       </c>
-      <c r="H5">
+      <c r="R5">
         <v>28.89842454357551</v>
       </c>
-      <c r="I5">
+      <c r="S5">
         <v>29.16739207267627</v>
       </c>
-      <c r="J5">
+      <c r="T5">
         <v>28.86041802476027</v>
       </c>
-      <c r="K5">
+      <c r="U5">
         <v>28.68054611375514</v>
       </c>
-      <c r="L5">
+      <c r="V5">
         <v>26.65871918815356</v>
       </c>
-      <c r="M5">
+      <c r="W5">
         <v>28.45797856755535</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
+        <v>88.09213297819615</v>
+      </c>
+      <c r="C6">
+        <v>89.05001176664494</v>
+      </c>
+      <c r="D6">
+        <v>88.6949292205779</v>
+      </c>
+      <c r="E6">
+        <v>90.28268190079709</v>
+      </c>
+      <c r="F6">
+        <v>91.62434920450663</v>
+      </c>
+      <c r="G6">
+        <v>92.11902904281408</v>
+      </c>
+      <c r="H6">
+        <v>92.90603450278127</v>
+      </c>
+      <c r="I6">
+        <v>92.09550323267234</v>
+      </c>
+      <c r="J6">
+        <v>91.63653002587341</v>
+      </c>
+      <c r="K6">
+        <v>86.29162804176261</v>
+      </c>
+      <c r="L6">
         <v>89.52819649948961</v>
       </c>
-      <c r="C6">
+      <c r="M6">
         <v>87.51198028494682</v>
       </c>
-      <c r="D6">
+      <c r="N6">
         <v>87.26133269381428</v>
       </c>
-      <c r="E6">
+      <c r="O6">
         <v>86.45761435630412</v>
       </c>
-      <c r="F6">
+      <c r="P6">
         <v>83.18682023234997</v>
       </c>
-      <c r="G6">
+      <c r="Q6">
         <v>83.959534806286</v>
       </c>
-      <c r="H6">
+      <c r="R6">
         <v>85.08616655434862</v>
       </c>
-      <c r="I6">
+      <c r="S6">
         <v>85.737670613167</v>
       </c>
-      <c r="J6">
+      <c r="T6">
         <v>86.06034976696291</v>
       </c>
-      <c r="K6">
+      <c r="U6">
         <v>84.79160576019511</v>
       </c>
-      <c r="L6">
+      <c r="V6">
         <v>78.930729798592</v>
       </c>
-      <c r="M6">
+      <c r="W6">
         <v>82.38436465955236</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
+        <v>25.9707257501785</v>
+      </c>
+      <c r="C7">
+        <v>26.38176374400344</v>
+      </c>
+      <c r="D7">
+        <v>26.27445898664986</v>
+      </c>
+      <c r="E7">
+        <v>26.81448226500291</v>
+      </c>
+      <c r="F7">
+        <v>27.05071744018896</v>
+      </c>
+      <c r="G7">
+        <v>27.01404877129061</v>
+      </c>
+      <c r="H7">
+        <v>28.21297113095449</v>
+      </c>
+      <c r="I7">
+        <v>28.36200386112931</v>
+      </c>
+      <c r="J7">
+        <v>28.4926533910134</v>
+      </c>
+      <c r="K7">
+        <v>27.07988364447517</v>
+      </c>
+      <c r="L7">
         <v>28.13247898714517</v>
       </c>
-      <c r="C7">
+      <c r="M7">
         <v>29.09026761121705</v>
       </c>
-      <c r="D7">
+      <c r="N7">
         <v>29.15566786523684</v>
       </c>
-      <c r="E7">
+      <c r="O7">
         <v>28.78728450920483</v>
       </c>
-      <c r="F7">
+      <c r="P7">
         <v>28.85624603744691</v>
       </c>
-      <c r="G7">
+      <c r="Q7">
         <v>28.36836720238922</v>
       </c>
-      <c r="H7">
+      <c r="R7">
         <v>28.99342497468875</v>
       </c>
-      <c r="I7">
+      <c r="S7">
         <v>29.16864760462608</v>
       </c>
-      <c r="J7">
+      <c r="T7">
         <v>30.24322892325013</v>
       </c>
-      <c r="K7">
+      <c r="U7">
         <v>30.02360698158247</v>
       </c>
-      <c r="L7">
+      <c r="V7">
         <v>28.88028669449503</v>
       </c>
-      <c r="M7">
+      <c r="W7">
         <v>31.29704441231235</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
+        <v>5.895201478625719</v>
+      </c>
+      <c r="C8">
+        <v>6.128457914105685</v>
+      </c>
+      <c r="D8">
+        <v>6.151091621212121</v>
+      </c>
+      <c r="E8">
+        <v>6.348358991399559</v>
+      </c>
+      <c r="F8">
+        <v>6.661682249525641</v>
+      </c>
+      <c r="G8">
+        <v>6.783819313204325</v>
+      </c>
+      <c r="H8">
+        <v>6.860182694752806</v>
+      </c>
+      <c r="I8">
+        <v>7.153285649483641</v>
+      </c>
+      <c r="J8">
+        <v>7.02287035793364</v>
+      </c>
+      <c r="K8">
+        <v>6.95203958966778</v>
+      </c>
+      <c r="L8">
         <v>7.280553129479376</v>
       </c>
-      <c r="C8">
+      <c r="M8">
         <v>7.857710218480618</v>
       </c>
-      <c r="D8">
+      <c r="N8">
         <v>8.152953213831976</v>
       </c>
-      <c r="E8">
+      <c r="O8">
         <v>7.920589959786439</v>
       </c>
-      <c r="F8">
+      <c r="P8">
         <v>8.108095071712937</v>
       </c>
-      <c r="G8">
+      <c r="Q8">
         <v>8.02222470947466</v>
       </c>
-      <c r="H8">
+      <c r="R8">
         <v>8.003354550078921</v>
       </c>
-      <c r="I8">
+      <c r="S8">
         <v>8.224640092323185</v>
       </c>
-      <c r="J8">
+      <c r="T8">
         <v>8.864733443833915</v>
       </c>
-      <c r="K8">
+      <c r="U8">
         <v>8.965491490345842</v>
       </c>
-      <c r="L8">
+      <c r="V8">
         <v>8.578251582430388</v>
       </c>
-      <c r="M8">
+      <c r="W8">
         <v>9.027458145917011</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
+        <v>1.161584450912089</v>
+      </c>
+      <c r="C9">
+        <v>1.297602556694406</v>
+      </c>
+      <c r="D9">
+        <v>1.233344599723762</v>
+      </c>
+      <c r="E9">
+        <v>1.094662940579989</v>
+      </c>
+      <c r="F9">
+        <v>1.173758020835766</v>
+      </c>
+      <c r="G9">
+        <v>1.109961030288144</v>
+      </c>
+      <c r="H9">
+        <v>1.078855332313234</v>
+      </c>
+      <c r="I9">
+        <v>1.087844851684127</v>
+      </c>
+      <c r="J9">
+        <v>1.245286603910672</v>
+      </c>
+      <c r="K9">
+        <v>1.222248119095117</v>
+      </c>
+      <c r="L9">
         <v>1.369528748525169</v>
       </c>
-      <c r="C9">
+      <c r="M9">
         <v>1.40893256199275</v>
       </c>
-      <c r="D9">
+      <c r="N9">
         <v>1.537286321995201</v>
       </c>
-      <c r="E9">
+      <c r="O9">
         <v>1.706754811419952</v>
       </c>
-      <c r="F9">
+      <c r="P9">
         <v>1.62245061888853</v>
       </c>
-      <c r="G9">
+      <c r="Q9">
         <v>1.567385358528986</v>
       </c>
-      <c r="H9">
+      <c r="R9">
         <v>1.799143612161479</v>
       </c>
-      <c r="I9">
+      <c r="S9">
         <v>1.901398705805125</v>
       </c>
-      <c r="J9">
+      <c r="T9">
         <v>2.291713958936985</v>
       </c>
-      <c r="K9">
+      <c r="U9">
         <v>2.225107976970274</v>
       </c>
-      <c r="L9">
+      <c r="V9">
         <v>1.986157164740497</v>
       </c>
-      <c r="M9">
+      <c r="W9">
         <v>2.12309479338551</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
+        <v>4.805566572488404</v>
+      </c>
+      <c r="C10">
+        <v>5.12039671964767</v>
+      </c>
+      <c r="D10">
+        <v>5.332977700812905</v>
+      </c>
+      <c r="E10">
+        <v>5.649087647523968</v>
+      </c>
+      <c r="F10">
+        <v>6.128811554340658</v>
+      </c>
+      <c r="G10">
+        <v>6.332422174425901</v>
+      </c>
+      <c r="H10">
+        <v>6.590558161834012</v>
+      </c>
+      <c r="I10">
+        <v>6.878009919421755</v>
+      </c>
+      <c r="J10">
+        <v>7.543843967695819</v>
+      </c>
+      <c r="K10">
+        <v>7.902634480306242</v>
+      </c>
+      <c r="L10">
         <v>8.736200409542356</v>
       </c>
-      <c r="C10">
+      <c r="M10">
         <v>9.183848632785217</v>
       </c>
-      <c r="D10">
+      <c r="N10">
         <v>9.738878541500318</v>
       </c>
-      <c r="E10">
+      <c r="O10">
         <v>9.781879407725791</v>
       </c>
-      <c r="F10">
+      <c r="P10">
         <v>10.53234393386296</v>
       </c>
-      <c r="G10">
+      <c r="Q10">
         <v>10.86529120653224</v>
       </c>
-      <c r="H10">
+      <c r="R10">
         <v>11.1563444609819</v>
       </c>
-      <c r="I10">
+      <c r="S10">
         <v>11.07716776684948</v>
       </c>
-      <c r="J10">
+      <c r="T10">
         <v>10.94253364555843</v>
       </c>
-      <c r="K10">
+      <c r="U10">
         <v>10.79070656531773</v>
       </c>
-      <c r="L10">
+      <c r="V10">
         <v>10.61518398981733</v>
       </c>
-      <c r="M10">
+      <c r="W10">
         <v>10.82421316376937</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
+        <v>1.928814821</v>
+      </c>
+      <c r="C11">
+        <v>1.949637674716</v>
+      </c>
+      <c r="D11">
+        <v>2.130095299776</v>
+      </c>
+      <c r="E11">
+        <v>2.27215906656</v>
+      </c>
+      <c r="F11">
+        <v>2.430235427412</v>
+      </c>
+      <c r="G11">
+        <v>2.536553056504</v>
+      </c>
+      <c r="H11">
+        <v>2.668654647952</v>
+      </c>
+      <c r="I11">
+        <v>2.946099911892</v>
+      </c>
+      <c r="J11">
+        <v>3.378241947848</v>
+      </c>
+      <c r="K11">
+        <v>3.332070939452903</v>
+      </c>
+      <c r="L11">
         <v>3.500970073985968</v>
       </c>
-      <c r="C11">
+      <c r="M11">
         <v>3.67535279001459</v>
       </c>
-      <c r="D11">
+      <c r="N11">
         <v>3.866759223049999</v>
       </c>
-      <c r="E11">
+      <c r="O11">
         <v>4.079681763916188</v>
       </c>
-      <c r="F11">
+      <c r="P11">
         <v>4.038183378196615</v>
       </c>
-      <c r="G11">
+      <c r="Q11">
         <v>4.431467132026977</v>
       </c>
-      <c r="H11">
+      <c r="R11">
         <v>4.623483590767711</v>
       </c>
-      <c r="I11">
+      <c r="S11">
         <v>4.639606364430242</v>
       </c>
-      <c r="J11">
+      <c r="T11">
         <v>4.578217707066043</v>
       </c>
-      <c r="K11">
+      <c r="U11">
         <v>4.547959348655886</v>
       </c>
-      <c r="L11">
+      <c r="V11">
         <v>4.259306240873623</v>
       </c>
-      <c r="M11">
+      <c r="W11">
         <v>4.528432432359379</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
+        <v>1.772785026220646</v>
+      </c>
+      <c r="C12">
+        <v>1.821863139525161</v>
+      </c>
+      <c r="D12">
+        <v>1.891519650077182</v>
+      </c>
+      <c r="E12">
+        <v>1.969429969432017</v>
+      </c>
+      <c r="F12">
+        <v>2.036127657535515</v>
+      </c>
+      <c r="G12">
+        <v>2.237361760584613</v>
+      </c>
+      <c r="H12">
+        <v>2.305990224892023</v>
+      </c>
+      <c r="I12">
+        <v>2.357031089983345</v>
+      </c>
+      <c r="J12">
+        <v>2.473912797016165</v>
+      </c>
+      <c r="K12">
+        <v>2.489312399476704</v>
+      </c>
+      <c r="L12">
         <v>2.498946661717929</v>
       </c>
-      <c r="C12">
+      <c r="M12">
         <v>2.364865709265058</v>
       </c>
-      <c r="D12">
+      <c r="N12">
         <v>2.239413450570013</v>
       </c>
-      <c r="E12">
+      <c r="O12">
         <v>2.162787163460494</v>
       </c>
-      <c r="F12">
+      <c r="P12">
         <v>2.138084944078189</v>
       </c>
-      <c r="G12">
+      <c r="Q12">
         <v>1.994663111031335</v>
       </c>
-      <c r="H12">
+      <c r="R12">
         <v>1.963992867984486</v>
       </c>
-      <c r="I12">
+      <c r="S12">
         <v>2.039600299423525</v>
       </c>
-      <c r="J12">
+      <c r="T12">
         <v>1.96881919379442</v>
       </c>
-      <c r="K12">
+      <c r="U12">
         <v>1.996841201116459</v>
       </c>
-      <c r="L12">
+      <c r="V12">
         <v>1.883990448215433</v>
       </c>
-      <c r="M12">
+      <c r="W12">
         <v>1.957378828960721</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
+        <v>0.9625755754059727</v>
+      </c>
+      <c r="C13">
+        <v>0.9841035637479503</v>
+      </c>
+      <c r="D13">
+        <v>0.9765068614831962</v>
+      </c>
+      <c r="E13">
+        <v>1.009967016817784</v>
+      </c>
+      <c r="F13">
+        <v>1.090436521919802</v>
+      </c>
+      <c r="G13">
+        <v>1.114726803157587</v>
+      </c>
+      <c r="H13">
+        <v>1.123985129020521</v>
+      </c>
+      <c r="I13">
+        <v>1.093862869163091</v>
+      </c>
+      <c r="J13">
+        <v>1.142580135726474</v>
+      </c>
+      <c r="K13">
+        <v>1.217266252571651</v>
+      </c>
+      <c r="L13">
         <v>1.255925162790642</v>
       </c>
-      <c r="C13">
+      <c r="M13">
         <v>0.9058532600598631</v>
       </c>
-      <c r="D13">
+      <c r="N13">
         <v>1.083975129693275</v>
       </c>
-      <c r="E13">
+      <c r="O13">
         <v>1.165403873093742</v>
       </c>
-      <c r="F13">
+      <c r="P13">
         <v>1.148006686154004</v>
       </c>
-      <c r="G13">
+      <c r="Q13">
         <v>1.138571705231176</v>
       </c>
-      <c r="H13">
+      <c r="R13">
         <v>1.171017474643149</v>
       </c>
-      <c r="I13">
+      <c r="S13">
         <v>1.154894596634004</v>
       </c>
-      <c r="J13">
+      <c r="T13">
         <v>1.164826735427267</v>
       </c>
-      <c r="K13">
+      <c r="U13">
         <v>1.158873016389468</v>
       </c>
-      <c r="L13">
+      <c r="V13">
         <v>1.042609008963824</v>
       </c>
-      <c r="M13">
+      <c r="W13">
         <v>1.222163140624562</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
+        <v>1.233928576179457</v>
+      </c>
+      <c r="C14">
+        <v>1.337757225076475</v>
+      </c>
+      <c r="D14">
+        <v>1.465199872871571</v>
+      </c>
+      <c r="E14">
+        <v>1.445024006179219</v>
+      </c>
+      <c r="F14">
+        <v>1.487658547636167</v>
+      </c>
+      <c r="G14">
+        <v>1.544393138872538</v>
+      </c>
+      <c r="H14">
+        <v>1.406138134037989</v>
+      </c>
+      <c r="I14">
+        <v>1.500973211011284</v>
+      </c>
+      <c r="J14">
+        <v>1.609958705123492</v>
+      </c>
+      <c r="K14">
+        <v>1.506035331222694</v>
+      </c>
+      <c r="L14">
         <v>1.587719750018578</v>
       </c>
-      <c r="C14">
+      <c r="M14">
         <v>1.728455678648728</v>
       </c>
-      <c r="D14">
+      <c r="N14">
         <v>1.81882760106277</v>
       </c>
-      <c r="E14">
+      <c r="O14">
         <v>1.839055894591845</v>
       </c>
-      <c r="F14">
+      <c r="P14">
         <v>1.895381861254716</v>
       </c>
-      <c r="G14">
+      <c r="Q14">
         <v>2.168012017542577</v>
       </c>
-      <c r="H14">
+      <c r="R14">
         <v>2.207753990715859</v>
       </c>
-      <c r="I14">
+      <c r="S14">
         <v>2.367402588034555</v>
       </c>
-      <c r="J14">
+      <c r="T14">
         <v>2.643860247137062</v>
       </c>
-      <c r="K14">
+      <c r="U14">
         <v>2.72001264755476</v>
       </c>
-      <c r="L14">
+      <c r="V14">
         <v>2.756904011225991</v>
       </c>
-      <c r="M14">
+      <c r="W14">
         <v>2.978847518605659</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
+        <v>5.327912735246676</v>
+      </c>
+      <c r="C15">
+        <v>5.433772596517637</v>
+      </c>
+      <c r="D15">
+        <v>5.346629167083629</v>
+      </c>
+      <c r="E15">
+        <v>5.707113605263944</v>
+      </c>
+      <c r="F15">
+        <v>6.202078079029866</v>
+      </c>
+      <c r="G15">
+        <v>5.981088875284526</v>
+      </c>
+      <c r="H15">
+        <v>6.121435354250917</v>
+      </c>
+      <c r="I15">
+        <v>6.314098755349306</v>
+      </c>
+      <c r="J15">
+        <v>6.656630457282518</v>
+      </c>
+      <c r="K15">
+        <v>6.708092722871257</v>
+      </c>
+      <c r="L15">
         <v>6.870275051041263</v>
       </c>
-      <c r="C15">
+      <c r="M15">
         <v>6.873752539099485</v>
       </c>
-      <c r="D15">
+      <c r="N15">
         <v>6.839479382141803</v>
       </c>
-      <c r="E15">
+      <c r="O15">
         <v>7.006956466650266</v>
       </c>
-      <c r="F15">
+      <c r="P15">
         <v>7.244792862539852</v>
       </c>
-      <c r="G15">
+      <c r="Q15">
         <v>7.216909621269943</v>
       </c>
-      <c r="H15">
+      <c r="R15">
         <v>7.419298605049089</v>
       </c>
-      <c r="I15">
+      <c r="S15">
         <v>7.529857103297088</v>
       </c>
-      <c r="J15">
+      <c r="T15">
         <v>7.456598926121885</v>
       </c>
-      <c r="K15">
+      <c r="U15">
         <v>7.681629411636572</v>
       </c>
-      <c r="L15">
+      <c r="V15">
         <v>7.138020871954271</v>
       </c>
-      <c r="M15">
+      <c r="W15">
         <v>7.320732723789167</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
+        <v>5.525562382622154</v>
+      </c>
+      <c r="C16">
+        <v>5.552808671737417</v>
+      </c>
+      <c r="D16">
+        <v>5.677931449460632</v>
+      </c>
+      <c r="E16">
+        <v>5.719292962684523</v>
+      </c>
+      <c r="F16">
+        <v>5.905573561887923</v>
+      </c>
+      <c r="G16">
+        <v>5.900536152680699</v>
+      </c>
+      <c r="H16">
+        <v>6.125427118019602</v>
+      </c>
+      <c r="I16">
+        <v>6.249726726361589</v>
+      </c>
+      <c r="J16">
+        <v>6.344557659176019</v>
+      </c>
+      <c r="K16">
+        <v>6.261834672288286</v>
+      </c>
+      <c r="L16">
         <v>6.277509377340044</v>
       </c>
-      <c r="C16">
+      <c r="M16">
         <v>6.451578193077751</v>
       </c>
-      <c r="D16">
+      <c r="N16">
         <v>6.37501817133918</v>
       </c>
-      <c r="E16">
+      <c r="O16">
         <v>6.451921114728732</v>
       </c>
-      <c r="F16">
+      <c r="P16">
         <v>6.52952618807107</v>
       </c>
-      <c r="G16">
+      <c r="Q16">
         <v>6.666355549771142</v>
       </c>
-      <c r="H16">
+      <c r="R16">
         <v>6.698494231763213</v>
       </c>
-      <c r="I16">
+      <c r="S16">
         <v>6.694870834751526</v>
       </c>
-      <c r="J16">
+      <c r="T16">
         <v>6.763661813840921</v>
       </c>
-      <c r="K16">
+      <c r="U16">
         <v>6.993901135804681</v>
       </c>
-      <c r="L16">
+      <c r="V16">
         <v>6.5981616742367</v>
       </c>
-      <c r="M16">
+      <c r="W16">
         <v>6.561425478568263</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
+        <v>42.48102381802845</v>
+      </c>
+      <c r="C17">
+        <v>44.89222836473343</v>
+      </c>
+      <c r="D17">
+        <v>48.88976635687222</v>
+      </c>
+      <c r="E17">
+        <v>56.94752257152672</v>
+      </c>
+      <c r="F17">
+        <v>66.63288668699785</v>
+      </c>
+      <c r="G17">
+        <v>75.69779322923728</v>
+      </c>
+      <c r="H17">
+        <v>82.97412400321353</v>
+      </c>
+      <c r="I17">
+        <v>90.17745785644681</v>
+      </c>
+      <c r="J17">
+        <v>93.66840582138188</v>
+      </c>
+      <c r="K17">
+        <v>97.77203630536101</v>
+      </c>
+      <c r="L17">
         <v>104.5950473757617</v>
       </c>
-      <c r="C17">
+      <c r="M17">
         <v>112.8008691487119</v>
       </c>
-      <c r="D17">
+      <c r="N17">
         <v>117.4332838910879</v>
       </c>
-      <c r="E17">
+      <c r="O17">
         <v>121.8522460341867</v>
       </c>
-      <c r="F17">
+      <c r="P17">
         <v>125.4095146405746</v>
       </c>
-      <c r="G17">
+      <c r="Q17">
         <v>127.0188762201951</v>
       </c>
-      <c r="H17">
+      <c r="R17">
         <v>129.1548551893817</v>
       </c>
-      <c r="I17">
+      <c r="S17">
         <v>133.603713681398</v>
       </c>
-      <c r="J17">
+      <c r="T17">
         <v>138.8828493052106</v>
       </c>
-      <c r="K17">
+      <c r="U17">
         <v>143.9225659637092</v>
       </c>
-      <c r="L17">
+      <c r="V17">
         <v>147.5804732469531</v>
       </c>
-      <c r="M17">
+      <c r="W17">
         <v>157.6472254038943</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18">
+        <v>13.42265168292674</v>
+      </c>
+      <c r="C18">
+        <v>13.4778691677147</v>
+      </c>
+      <c r="D18">
+        <v>13.91670459109575</v>
+      </c>
+      <c r="E18">
+        <v>14.41468147866541</v>
+      </c>
+      <c r="F18">
+        <v>15.65129453634689</v>
+      </c>
+      <c r="G18">
+        <v>16.57299638762811</v>
+      </c>
+      <c r="H18">
+        <v>17.45899347887723</v>
+      </c>
+      <c r="I18">
+        <v>18.94720102103473</v>
+      </c>
+      <c r="J18">
+        <v>20.05450859680821</v>
+      </c>
+      <c r="K18">
+        <v>21.61164912452246</v>
+      </c>
+      <c r="L18">
         <v>22.57005190499919</v>
       </c>
-      <c r="C18">
+      <c r="M18">
         <v>23.94255798406234</v>
       </c>
-      <c r="D18">
+      <c r="N18">
         <v>25.37311640267892</v>
       </c>
-      <c r="E18">
+      <c r="O18">
         <v>26.25964001642039</v>
       </c>
-      <c r="F18">
+      <c r="P18">
         <v>28.07918297389235</v>
       </c>
-      <c r="G18">
+      <c r="Q18">
         <v>28.9087283044033</v>
       </c>
-      <c r="H18">
+      <c r="R18">
         <v>30.16396772341272</v>
       </c>
-      <c r="I18">
+      <c r="S18">
         <v>31.32377633014787</v>
       </c>
-      <c r="J18">
+      <c r="T18">
         <v>33.33726203987121</v>
       </c>
-      <c r="K18">
+      <c r="U18">
         <v>34.14827041621345</v>
       </c>
-      <c r="L18">
+      <c r="V18">
         <v>32.19088579719276</v>
       </c>
-      <c r="M18">
+      <c r="W18">
         <v>35.42836866351489</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19">
+        <v>22.47291306135499</v>
+      </c>
+      <c r="C19">
+        <v>22.26014150812044</v>
+      </c>
+      <c r="D19">
+        <v>22.29278493114803</v>
+      </c>
+      <c r="E19">
+        <v>22.212762105807</v>
+      </c>
+      <c r="F19">
+        <v>22.4694339459481</v>
+      </c>
+      <c r="G19">
+        <v>22.54692970211914</v>
+      </c>
+      <c r="H19">
+        <v>22.49533390121912</v>
+      </c>
+      <c r="I19">
+        <v>22.25450471587695</v>
+      </c>
+      <c r="J19">
+        <v>21.8636578492308</v>
+      </c>
+      <c r="K19">
+        <v>19.9498075123495</v>
+      </c>
+      <c r="L19">
         <v>21.26726693464495</v>
       </c>
-      <c r="C19">
+      <c r="M19">
         <v>20.1440826117171</v>
       </c>
-      <c r="D19">
+      <c r="N19">
         <v>19.98913771066359</v>
       </c>
-      <c r="E19">
+      <c r="O19">
         <v>19.84350746740127</v>
       </c>
-      <c r="F19">
+      <c r="P19">
         <v>19.34156131925832</v>
       </c>
-      <c r="G19">
+      <c r="Q19">
         <v>19.06748522608758</v>
       </c>
-      <c r="H19">
+      <c r="R19">
         <v>18.82305934825639</v>
       </c>
-      <c r="I19">
+      <c r="S19">
         <v>19.05243271059139</v>
       </c>
-      <c r="J19">
+      <c r="T19">
         <v>18.95087719710021</v>
       </c>
-      <c r="K19">
+      <c r="U19">
         <v>18.50738820621173</v>
       </c>
-      <c r="L19">
+      <c r="V19">
         <v>17.13192222456113</v>
       </c>
-      <c r="M19">
+      <c r="W19">
         <v>17.74027404200516</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20">
+        <v>1.594851970660788</v>
+      </c>
+      <c r="C20">
+        <v>1.811114792704651</v>
+      </c>
+      <c r="D20">
+        <v>1.779231792713871</v>
+      </c>
+      <c r="E20">
+        <v>1.681165614572516</v>
+      </c>
+      <c r="F20">
+        <v>1.881749747416774</v>
+      </c>
+      <c r="G20">
+        <v>1.977252161824807</v>
+      </c>
+      <c r="H20">
+        <v>2.175598784792629</v>
+      </c>
+      <c r="I20">
+        <v>2.335935503873145</v>
+      </c>
+      <c r="J20">
+        <v>2.48513499958106</v>
+      </c>
+      <c r="K20">
+        <v>2.672618866232463</v>
+      </c>
+      <c r="L20">
         <v>2.872354932331695</v>
       </c>
-      <c r="C20">
+      <c r="M20">
         <v>2.9864385821815</v>
       </c>
-      <c r="D20">
+      <c r="N20">
         <v>2.999197638622178</v>
       </c>
-      <c r="E20">
+      <c r="O20">
         <v>3.065352974257934</v>
       </c>
-      <c r="F20">
+      <c r="P20">
         <v>3.154365022678553</v>
       </c>
-      <c r="G20">
+      <c r="Q20">
         <v>3.354355428482927</v>
       </c>
-      <c r="H20">
+      <c r="R20">
         <v>3.48065166933142</v>
       </c>
-      <c r="I20">
+      <c r="S20">
         <v>3.589979773229512</v>
       </c>
-      <c r="J20">
+      <c r="T20">
         <v>3.609587754684175</v>
       </c>
-      <c r="K20">
+      <c r="U20">
         <v>3.533346978460683</v>
       </c>
-      <c r="L20">
+      <c r="V20">
         <v>3.43943760528296</v>
       </c>
-      <c r="M20">
+      <c r="W20">
         <v>3.456708029583623</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
+        <v>0.7629953200431527</v>
+      </c>
+      <c r="C21">
+        <v>0.7714992178854762</v>
+      </c>
+      <c r="D21">
+        <v>0.8165864348882759</v>
+      </c>
+      <c r="E21">
+        <v>0.9759265489698055</v>
+      </c>
+      <c r="F21">
+        <v>1.090219379016278</v>
+      </c>
+      <c r="G21">
+        <v>1.202735113457485</v>
+      </c>
+      <c r="H21">
+        <v>1.156070288519794</v>
+      </c>
+      <c r="I21">
+        <v>1.123057083395155</v>
+      </c>
+      <c r="J21">
+        <v>1.214892727652308</v>
+      </c>
+      <c r="K21">
+        <v>1.257779725887657</v>
+      </c>
+      <c r="L21">
         <v>1.414672015967642</v>
       </c>
-      <c r="C21">
+      <c r="M21">
         <v>1.45283738826049</v>
       </c>
-      <c r="D21">
+      <c r="N21">
         <v>1.513131073190594</v>
       </c>
-      <c r="E21">
+      <c r="O21">
         <v>1.546419853335675</v>
       </c>
-      <c r="F21">
+      <c r="P21">
         <v>1.571837316903749</v>
       </c>
-      <c r="G21">
+      <c r="Q21">
         <v>1.633345033725317</v>
       </c>
-      <c r="H21">
+      <c r="R21">
         <v>1.615095199879092</v>
       </c>
-      <c r="I21">
+      <c r="S21">
         <v>1.646049220367107</v>
       </c>
-      <c r="J21">
+      <c r="T21">
         <v>1.677224866917163</v>
       </c>
-      <c r="K21">
+      <c r="U21">
         <v>1.726224873189305</v>
       </c>
-      <c r="L21">
+      <c r="V21">
         <v>1.614130895472158</v>
       </c>
-      <c r="M21">
+      <c r="W21">
         <v>1.738894798082041</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22">
+        <v>1.594340192886586</v>
+      </c>
+      <c r="C22">
+        <v>1.634301981342403</v>
+      </c>
+      <c r="D22">
+        <v>1.596949744687333</v>
+      </c>
+      <c r="E22">
+        <v>1.699039265910623</v>
+      </c>
+      <c r="F22">
+        <v>1.731365139554722</v>
+      </c>
+      <c r="G22">
+        <v>1.80785179686201</v>
+      </c>
+      <c r="H22">
+        <v>1.887354254288695</v>
+      </c>
+      <c r="I22">
+        <v>1.84917285028547</v>
+      </c>
+      <c r="J22">
+        <v>1.935709480021893</v>
+      </c>
+      <c r="K22">
+        <v>1.767240279928426</v>
+      </c>
+      <c r="L22">
         <v>1.955431948921554</v>
       </c>
-      <c r="C22">
+      <c r="M22">
         <v>1.94454388042602</v>
       </c>
-      <c r="D22">
+      <c r="N22">
         <v>2.052387147956986</v>
       </c>
-      <c r="E22">
+      <c r="O22">
         <v>2.023641571420611</v>
       </c>
-      <c r="F22">
+      <c r="P22">
         <v>2.172022271153193</v>
       </c>
-      <c r="G22">
+      <c r="Q22">
         <v>2.244209865950524</v>
       </c>
-      <c r="H22">
+      <c r="R22">
         <v>2.465547015299506</v>
       </c>
-      <c r="I22">
+      <c r="S22">
         <v>2.844604715999878</v>
       </c>
-      <c r="J22">
+      <c r="T22">
         <v>3.032060584788522</v>
       </c>
-      <c r="K22">
+      <c r="U22">
         <v>3.189388565247055</v>
       </c>
-      <c r="L22">
+      <c r="V22">
         <v>3.336835434458398</v>
       </c>
-      <c r="M22">
+      <c r="W22">
         <v>3.404623231026411</v>
       </c>
     </row>
